--- a/GamelolCenterServer/GamelolCenter中心服务器指令集.xlsx
+++ b/GamelolCenterServer/GamelolCenter中心服务器指令集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11910" windowHeight="9930"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>type</t>
   </si>
@@ -126,18 +126,21 @@
     <t>添加聊天好友</t>
   </si>
   <si>
+    <t>ApplyMessage</t>
+  </si>
+  <si>
+    <t>玩家好友信息</t>
+  </si>
+  <si>
+    <t>1、Find_Command</t>
+  </si>
+  <si>
+    <t>查找聊天好友</t>
+  </si>
+  <si>
     <t>FriendMessage</t>
   </si>
   <si>
-    <t>玩家好友信息</t>
-  </si>
-  <si>
-    <t>1、Find_Command</t>
-  </si>
-  <si>
-    <t>查找聊天好友</t>
-  </si>
-  <si>
     <t xml:space="preserve">2、Delete_Command </t>
   </si>
   <si>
@@ -150,9 +153,6 @@
     <t>接受好友申请</t>
   </si>
   <si>
-    <t>ApplyMessage</t>
-  </si>
-  <si>
     <t>好友申请信息</t>
   </si>
   <si>
@@ -162,12 +162,24 @@
     <t>获取好友列表</t>
   </si>
   <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>玩家的ID</t>
+  </si>
+  <si>
     <t>5、Inform_Command</t>
   </si>
   <si>
     <t>好友上线下线通知</t>
   </si>
   <si>
+    <t xml:space="preserve">OnlineMessage </t>
+  </si>
+  <si>
+    <t>上线还是下线和id</t>
+  </si>
+  <si>
     <t>2、Chat_Area</t>
   </si>
   <si>
@@ -196,6 +208,21 @@
   </si>
   <si>
     <t>邮件系统</t>
+  </si>
+  <si>
+    <t>0、Read_Command</t>
+  </si>
+  <si>
+    <t>读取邮件</t>
+  </si>
+  <si>
+    <t>EmailMessage</t>
+  </si>
+  <si>
+    <t>1、Delete_Command</t>
+  </si>
+  <si>
+    <t>删除邮件</t>
   </si>
 </sst>
 </file>
@@ -203,10 +230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -218,7 +245,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,21 +260,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -248,14 +275,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,9 +311,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,23 +357,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,44 +373,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -394,187 +421,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,32 +615,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,40 +678,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +732,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,8 +1230,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1602,7 +1629,9 @@
       <c r="F15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1623,10 +1652,10 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1649,13 +1678,13 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>45</v>
@@ -1684,8 +1713,12 @@
       <c r="F18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1705,13 +1738,17 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1729,22 +1766,22 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1765,10 +1802,10 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1789,14 +1826,20 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1816,8 +1859,12 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -3220,7 +3267,7 @@
       <c r="T86" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -3228,8 +3275,9 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="H14:H16"/>
